--- a/公式.xlsx
+++ b/公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="输入面积页面" sheetId="5" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>50000≤X＜99999</t>
   </si>
   <si>
-    <t>100000≤X＜19999</t>
+    <t>100000≤X＜199999</t>
   </si>
   <si>
     <t>200000≤X＜499999</t>
@@ -639,10 +639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
@@ -707,45 +707,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,51 +738,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -828,9 +754,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,6 +781,66 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -931,6 +931,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -943,7 +1063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,157 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,20 +1238,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,21 +1273,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,17 +1303,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,10 +1343,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1355,133 +1355,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,8 +2311,8 @@
   <sheetPr/>
   <dimension ref="A2:Q292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E121" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="N96" s="42"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" ht="21" customHeight="1" spans="1:14">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="16"/>
@@ -4870,7 +4870,7 @@
         <v>77</v>
       </c>
       <c r="K106" s="103">
-        <v>9999</v>
+        <v>99999</v>
       </c>
       <c r="L106" s="104">
         <v>0.02</v>
